--- a/biology/Zoologie/Brillant_à_front_violet/Brillant_à_front_violet.xlsx
+++ b/biology/Zoologie/Brillant_à_front_violet/Brillant_à_front_violet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brillant_%C3%A0_front_violet</t>
+          <t>Brillant_à_front_violet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliodoxa leadbeateri
 Le Brillant à front violet  ou Brillant de Leadbeater (Heliodoxa leadbeateri) est une espèce de colibris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brillant_%C3%A0_front_violet</t>
+          <t>Brillant_à_front_violet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Bolivie, en Colombie, en Équateur, au Pérou et au Venezuela.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brillant_%C3%A0_front_violet</t>
+          <t>Brillant_à_front_violet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales sèches et humides de basses et hautes altitudes ainsi que les forêts humides de broussailles. On la trouve aussi près de zones de plantations agricoles.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brillant_%C3%A0_front_violet</t>
+          <t>Brillant_à_front_violet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des quatre sous-espèces suivantes :
 Heliodoxa leadbeateri leadbeateri (Bourcier) 1843 ;
